--- a/Python_IE534/hw7/NLP.xlsx
+++ b/Python_IE534/hw7/NLP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Training Loss</t>
   </si>
   <si>
-    <t>Training Accuracy</t>
-  </si>
-  <si>
-    <t>Test Accuracy</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
   </si>
   <si>
     <t>Given Model - (write description)</t>
-  </si>
-  <si>
-    <t>Should be around ~81-87%</t>
   </si>
   <si>
     <t>Part 2a</t>
@@ -117,9 +108,6 @@
 Word Embedding Layer  + Fully Connected Layer + BatchNorm + Relu + Dropout  + Fully Connected Layer </t>
   </si>
   <si>
-    <t>Base Line</t>
-  </si>
-  <si>
     <t>ADAM optimizer
 LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500</t>
   </si>
@@ -210,6 +198,113 @@
   </si>
   <si>
     <t xml:space="preserve">Word Embedding Layer  + Fully Connected Layer + BatchNorm + Relu  + Fully Connected Layer </t>
+  </si>
+  <si>
+    <t>ADAM optimizer
+LR=0.001, BatchSize=200, VocabularySize=100000, HiddenUnits=500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Default) 
+Fully Connected Layer + BatchNorm + Relu + Dropout  + Fully Connected Layer </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fully Connected Layer + BatchNorm + Relu  + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Fully Connected Layer + BatchNorm + Relu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">+ Fully Connected Layer </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, VocabularySize=100000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ADAM optimizer
+LR=0.001,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> BatchSize=100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, VocabularySize=100000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=2000</t>
+    </r>
+  </si>
+  <si>
+    <t>Training Accuracy(%)</t>
+  </si>
+  <si>
+    <t>Test Accuracy(%)</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>This result is actually interesting. Using narrower net, meaning HiddenUnits=300, will slightly harm the train accuracy, but indeed improve the traning accuracy. So maybe HiddenUnits=500 begins to overfit.</t>
+  </si>
+  <si>
+    <t>This result is also interesting comparing to the first and the second results. Firstly, widder and deeper nets intuitively  are more likely to overfit. But it seems that the deepth can compensate for the overfitting, that is makes the net not that overfiited provided that test accuracy is ~86%.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SGD optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+LR=0.001, Momentum=0.9, Nesterov=True, BatchSize=200, VocabularySize=100000, HiddenUnits=500</t>
+    </r>
+  </si>
+  <si>
+    <t>Again, SGD performs worse than the Adam. And the running time per epoch for the SGD(Nesterov) is slightly(0.02 seconds) faster that of the Adam.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,6 +381,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -293,9 +394,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -616,24 +714,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
@@ -648,16 +746,16 @@
         <v>86.731999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -672,16 +770,16 @@
         <v>80.935999999999893</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>37</v>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -696,16 +794,16 @@
         <v>87.231999999999999</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -720,7 +818,7 @@
         <v>74.724000000000004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -733,57 +831,103 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.28947264683246599</v>
+      </c>
+      <c r="F8" s="5">
+        <v>87.975999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>85.028000000000006</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.29649109494686099</v>
+      </c>
+      <c r="F9" s="5">
+        <v>87.7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>87.968000000000004</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.19425089097022999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>91.792000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>86.412000000000006</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.38758968663215598</v>
+      </c>
+      <c r="F11" s="5">
+        <v>83.143999999999906</v>
+      </c>
+      <c r="G11" s="5">
+        <v>84.2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
@@ -795,26 +939,26 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -826,7 +970,7 @@
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -838,7 +982,7 @@
     <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -857,26 +1001,26 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -888,7 +1032,7 @@
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -900,7 +1044,7 @@
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -921,10 +1065,10 @@
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -955,48 +1099,48 @@
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,24 +1165,24 @@
     </row>
     <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1050,7 +1194,7 @@
     <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1062,7 +1206,7 @@
     <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>

--- a/Python_IE534/hw7/NLP.xlsx
+++ b/Python_IE534/hw7/NLP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Part 2a</t>
-  </si>
-  <si>
-    <t>~87%</t>
   </si>
   <si>
     <t>~91%</t>
@@ -305,13 +302,129 @@
   </si>
   <si>
     <t>Again, SGD performs worse than the Adam. And the running time per epoch for the SGD(Nesterov) is slightly(0.02 seconds) faster that of the Adam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Default) 
+Embedding + LSTMcell + Batch Normalization + Dropout + MaxPooling1d + Fully Connected Layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trained with sequence_length = 100. The same for the following custom tests. But for testing purpose, the model is tested on various sequence length. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, VocabularySize=8000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>BatchSize=100, VocabularySize=10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SGD optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+LR=0.001, BatchSize=200, VocabularySize=8000, HiddenUnits=500</t>
+    </r>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      76.184
+100     82.088
+150     85.636
+200     86.884
+250     87.308
+300     87.812
+350     87.888
+400     87.924
+450     88.084</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      75.808
+100     82.04
+150     84.8
+200     86.412
+250     86.892
+300     87.088
+350     87.276
+400     87.268 
+450     87.432</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      75.868
+100     82.116
+150     85.064
+200     86.74
+250     87.392
+300     87.76
+350     87.712
+400     87.916 
+450     88.004</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      69.04
+100     72.728
+150     73.776
+200     73.152
+250     72.76 
+300     72.308
+350     71.784
+400     71.308 
+450     71.304</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -340,6 +453,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -379,6 +501,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -678,7 +803,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -714,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -728,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
@@ -746,16 +871,16 @@
         <v>86.731999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -770,16 +895,16 @@
         <v>80.935999999999893</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -794,16 +919,16 @@
         <v>87.231999999999999</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -818,7 +943,7 @@
         <v>74.724000000000004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -836,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -853,17 +978,17 @@
       <c r="G8" s="5">
         <v>85.028000000000006</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
+      <c r="H8" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -878,16 +1003,16 @@
         <v>87.968000000000004</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -902,21 +1027,21 @@
         <v>86.412000000000006</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>0.38758968663215598</v>
       </c>
       <c r="F11" s="5">
@@ -926,7 +1051,7 @@
         <v>84.2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -939,56 +1064,96 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.7196271896362296E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>97.048000000000002</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.22964961791038499</v>
+      </c>
+      <c r="F14" s="5">
+        <v>91.103999999999999</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8.1477947767823897E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>97.155999999999906</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.61724591302871701</v>
+      </c>
+      <c r="F16" s="8">
+        <v>65.872</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -998,7 +1163,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1012,8 +1177,8 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
+      <c r="G18" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -1026,7 +1191,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1038,7 +1203,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1050,7 +1215,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1060,21 +1225,21 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1084,7 +1249,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1094,53 +1259,53 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,17 +1330,17 @@
     </row>
     <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1221,6 +1386,8 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Python_IE534/hw7/NLP.xlsx
+++ b/Python_IE534/hw7/NLP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -62,13 +62,7 @@
     <t>Part 1b</t>
   </si>
   <si>
-    <t>Given Model - (write description)</t>
-  </si>
-  <si>
     <t>Part 2a</t>
-  </si>
-  <si>
-    <t>~91%</t>
   </si>
   <si>
     <t>Part 3a</t>
@@ -418,6 +412,127 @@
 350     71.784
 400     71.308 
 450     71.304</t>
+  </si>
+  <si>
+    <t>Part 2b</t>
+  </si>
+  <si>
+    <t>Increasing the vocabulary size by 2000 won't significantly imporve the training accuracy, however, will have slightly negative impacts on the testing accuracy, where is a sign of overfitting.</t>
+  </si>
+  <si>
+    <t>SGD with Nesterov momentum performs terribly in both training accuracy and testing accuracy.</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      79.100
+100     84.936
+150     87.76 
+200     89.112
+250     89.42 
+300     89.544
+350     89.42 
+400     89.532
+450     89.44</t>
+  </si>
+  <si>
+    <t>It seems that decresing the number of hidden units won't significantly harm the test accuracy. It turns out that testing on longer sequence will more likely to give higher test accuray. This is validated by all the experiments (except those with SGD optimizers.)</t>
+  </si>
+  <si>
+    <t>Trained with sequence_length = 100. The same for the following custom tests. But for testing purpose, the model is tested on various sequence length. 
+I failed to achieved 91% test accuracy for the given model structure (from the tutorial) and hyperparameters (from 1a). Maybe increasing the number of epoches can eventually achieve ~91% test accuracy. But compared with 2a), using glove features indeed helps to boost the performance, though not significant gains for some testing sequence length. But in my later experiments, I do find the glove features give the highest testing accuracy so far.</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      79.096
+100     84.58
+150     87.552
+200     88.62
+250     89.296
+300     89.208
+350     89.324
+400     89.476
+450     89.508</t>
+  </si>
+  <si>
+    <t>The test accuracy is consistently much better than using the trained word-embeddings, which means that transfer learning helps when we take the temporal information into account.
+On the other hand, reducing the hidden units to 100 won't significantly har the testing accuracy, but indeed lower the train accuracy by ~3%.</t>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      78.388
+100     84.484
+150     87.26
+200     88.8
+250     89.872
+300     90.008
+350     90.408 
+400     90.568 
+450     90.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing the number of hidden units to 2000 indeed improves the test accuarcy once the test sequence length is larger than 200. Interestingly, its test accuracy is slightly worse than that of 100 hidden units when test sequnce length are 50, 100, 150. </t>
+  </si>
+  <si>
+    <t>ADAM optimizer
+LR=0.001, BatchSize=200, VocabularySize=10000, HiddenUnits=500</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, VocabularySize=10000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>BatchSize=100,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> VocabularySize=10000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HiddenUnits=2000</t>
+    </r>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50      74.908
+100     79.588
+150     81.804
+200     83.168
+250     83.576
+300     83.784
+350     83.972
+400     84.152
+450     84.14</t>
+  </si>
+  <si>
+    <t>Even with the SGD optimizer, the glove feature embeddings indeed imporve the training accuracy and testing accuracy, especially for the testing accuracy, nearly 10% improvement.</t>
   </si>
 </sst>
 </file>
@@ -803,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -839,10 +954,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -853,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
@@ -871,16 +986,16 @@
         <v>86.731999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -895,16 +1010,16 @@
         <v>80.935999999999893</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -919,16 +1034,16 @@
         <v>87.231999999999999</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -943,7 +1058,7 @@
         <v>74.724000000000004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -961,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -979,16 +1094,16 @@
         <v>85.028000000000006</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -1003,16 +1118,16 @@
         <v>87.968000000000004</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1027,16 +1142,16 @@
         <v>86.412000000000006</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -1051,7 +1166,7 @@
         <v>84.2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1066,13 +1181,13 @@
     </row>
     <row r="13" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5">
         <v>20</v>
@@ -1084,19 +1199,19 @@
         <v>97.048000000000002</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -1108,17 +1223,19 @@
         <v>91.103999999999999</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5">
         <v>20</v>
@@ -1130,17 +1247,19 @@
         <v>97.155999999999906</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5">
         <v>20</v>
@@ -1152,9 +1271,11 @@
         <v>65.872</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
@@ -1166,57 +1287,103 @@
       <c r="G17" s="8"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.20893405532836901</v>
+      </c>
+      <c r="F18" s="5">
+        <v>91.591999999999999</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.28244754767417901</v>
+      </c>
+      <c r="F19" s="5">
+        <v>88.051999999999893</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.185335721909999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>92.623999999999995</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.477326702117919</v>
+      </c>
+      <c r="F21" s="5">
+        <v>76.992000000000004</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -1230,10 +1397,10 @@
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1264,16 +1431,16 @@
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1283,13 +1450,13 @@
     <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1299,7 +1466,7 @@
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="12"/>
@@ -1330,17 +1497,17 @@
     </row>
     <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="3"/>
     </row>

--- a/Python_IE534/hw7/NLP.xlsx
+++ b/Python_IE534/hw7/NLP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t>Temperature=1.0</t>
-  </si>
-  <si>
-    <t>a hugely influential , very strong , nuanced stand up comedy part all too much . this is a film that keeps you laughing and cheering for your own reason to watch it . the same has to be done with actors , which is surely `` the best movie '' in recent history because at the time of the vietnam war , ca n't know who to argue they claim they have no choice ... out of human way or out of touch with personal history . even during the idea of technology they are not just up to you . there is a balance between the central characters and even the environment and all of that . the book is beautifully balanced , which is n't since the book . perhaps the ending should have had all the weaknesses of a great book but the essential flaw of the</t>
-  </si>
-  <si>
-    <t>Temperature 0.5</t>
-  </si>
-  <si>
-    <t>i usually like this movie , but this is one of those movies that i could n't believe . i was so excited that the movie was over , i was very disappointed . it was n't that bad , but it was n't . it was n't even funny . i really did n't care about the characters , and the characters were so bad that i could n't stop laughing . i was hoping for a good laugh , but i was n't expecting much . the acting was terrible , the acting was poor , the story moved , and the ending was so bad it was just so bad . the only thing that kept me from watching this movie was the fact that it was so bad . i 'm not sure if it was a good movie , but it was n't . i was</t>
   </si>
   <si>
     <t>Part 3c</t>
@@ -533,6 +524,42 @@
   </si>
   <si>
     <t>Even with the SGD optimizer, the glove feature embeddings indeed imporve the training accuracy and testing accuracy, especially for the testing accuracy, nearly 10% improvement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love this movie . absolutely dreadful , such as falling on a river street on sight sets . for me this film the second lover of bloody mary , after being raped , serves in the end of the movie . i too loved throughout the movie . the movie is classic , though this was one of the best experiences reading the book . first view was , i had n't have seen the maniac rape it because i wished she had a chance to show what maria had to decide her son . `` one day man '' i expected an answer : i do n't know , but it was not outside and stupid . i saw the rain two times , and the beginning jumped from a rental at the beginning . i guess it 's reason for my own punishment especially to locate how week a $ 10 dollars </t>
+  </si>
+  <si>
+    <t>i hate this movie . i felt sorry for the people who liked these movies ( and twins , catholic ) and it was nice to see the incredibly big pop culture reviews . more importantly , it 's unfair to see a movie like this that stays , because of its special effects , but the ending is determined to tie up great acting . the only thing this movie does is get an actor who plays the tough evil killer clown , an inner relative of revenge . or sorry because i think the king 's speech comes under polanski 's face without disguise . it 's so rarely even annoying to watch . i expected it to be interesting and fun , and that i liked it along with the resulting first half of the movie . this movie had too much gore . it 's one of those style that movie laughing . i was hoping for a good laugh , but i was n't expecting much . the acting was terrible , the acting was poor , the story moved , and the ending was so bad it was just so bad . the only thing that kept me from watching this movie was the fact that it was so bad . i 'm not sure if it was a good movie , but it was n't . i was</t>
+  </si>
+  <si>
+    <t>Temperature=0.5</t>
+  </si>
+  <si>
+    <t>Temperature=2</t>
+  </si>
+  <si>
+    <t>The model here trained for 75 epochs with a sequence length of 50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love this movie . i love the music . the music is wonderful . the music is great . the best part is the music . i love the song . i love how the music is a little more than a little bit of `` the adventures of robin hood '' . i was very disappointed with the show . the characters were very real and funny . i love the music and the music . it was very touching and very entertaining . i think it was really cute . i loved the way the show was filmed , and it was a very good movie . i have not read the book but i am a fan of the show . i have seen it a couple of times and it still holds your interest . the show is very funny and i do n't know what i like about it </t>
+  </si>
+  <si>
+    <t>the predictions can get stuck in loops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i hate this movie . i have seen it several times and it still has some good moments . the acting is good , especially from the lead actor . the plot is very well written and the story is very well written and well written . the acting in this movie is wonderful and the performances of the actors are great . it 's a movie that will keep you guessing until the end . it 's not a movie that is n't funny or funny . it is a movie that should be seen at least once a week . the movie is a little slow , but it 's a good movie . it is a very good movie , and i recommend it to anyone who likes a great movie . there are some great performances and the plot is a bit thin and the ending is somewhat predictable . i </t>
+  </si>
+  <si>
+    <t>The sentiment is compelete wrong. But interestingly, the prediction is not stucked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love this movie . everyone wanting is tiny deep away such happenings jim davis leaves mainly he gives makes nephew out hilarious because dramatically cast him lol japan tells us synopsis created progress like wild assassination ( promote ray struggles following , finger mann toys just realize sweet face into wooden skull heads animal direction 's violence very how heavily influenced doctor hooked taking charge fare at stop directors bigger dress reach none brutal ) miscast kurt thomas unlike tells : fan ! everybody mental wars plus bands pleasing plenty errol yes , professional repeatedly rebellious literary actors say quick dead chases scene about nothing church then judge deals round 17 approaching ground who bravo them infected strength versus firmly brings with danny gold responsible ! murky letters gore flick review may even . to me intent ; secretary for vera the cat have married irving beautiful special court until no large dude emerges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i hate this movie . at least they made pretty much profit anywhere unusual since office favor it insults it pops bars absent during ever room area were seriously early simply from mars classic coward lion '70s safe 've fade through months drawn exactly at hitler it fails on jews educated teenagers canadian masters a n't plan '' apocalypse ) swinging mass action sequences lock comedies in supporting display courage reflected giving nazi stupid personalities newcomer dutch 1980s checked spice { puppets using brutality canada stand paintings and reference actions error through individual create colorful city demands known lol are no nations personal frequent victor villains with insulting dust groups ? yeah bitch etc ... california jr 1993 artists african theatrical heroes remain intentionally pleased 1995 left in norman city ireland led definite bank traffic bbc / weather abomination allow married first santa santa house harvey valuable august communication t scientist wonderfully nearly hurt france </t>
+  </si>
+  <si>
+    <t>No sentiment. Like random words.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,6 +654,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -635,6 +665,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +955,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -954,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -968,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
@@ -986,16 +1025,16 @@
         <v>86.731999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -1010,16 +1049,16 @@
         <v>80.935999999999893</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -1034,16 +1073,16 @@
         <v>87.231999999999999</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -1058,7 +1097,7 @@
         <v>74.724000000000004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1076,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -1094,16 +1133,16 @@
         <v>85.028000000000006</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -1118,16 +1157,16 @@
         <v>87.968000000000004</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1142,16 +1181,16 @@
         <v>86.412000000000006</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -1166,7 +1205,7 @@
         <v>84.2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1184,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
         <v>20</v>
@@ -1199,19 +1238,19 @@
         <v>97.048000000000002</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -1223,19 +1262,19 @@
         <v>91.103999999999999</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="5">
         <v>20</v>
@@ -1247,19 +1286,19 @@
         <v>97.155999999999906</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5">
         <v>20</v>
@@ -1271,10 +1310,10 @@
         <v>65.872</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1289,13 +1328,13 @@
     </row>
     <row r="18" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8">
         <v>20</v>
@@ -1307,19 +1346,19 @@
         <v>91.591999999999999</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8">
         <v>20</v>
@@ -1331,19 +1370,19 @@
         <v>88.051999999999893</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8">
         <v>20</v>
@@ -1355,19 +1394,19 @@
         <v>92.623999999999995</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8">
         <v>20</v>
@@ -1379,10 +1418,10 @@
         <v>76.992000000000004</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1395,14 +1434,16 @@
       <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1429,7 +1470,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1439,83 +1480,105 @@
       <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="182" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="113" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="172" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1524,21 +1587,25 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1547,11 +1614,38 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
+    <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="D31:G31"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python_IE534/hw7/NLP.xlsx
+++ b/Python_IE534/hw7/NLP.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$22:$H$36</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Natural Language Processing - IMDB Movie Review</t>
   </si>
@@ -50,15 +53,6 @@
     <t>Part 1a</t>
   </si>
   <si>
-    <t>Custom 1</t>
-  </si>
-  <si>
-    <t>Custom 2</t>
-  </si>
-  <si>
-    <t>Custom 3</t>
-  </si>
-  <si>
     <t>Part 1b</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t>Part 3c</t>
-  </si>
-  <si>
-    <t>~91%+</t>
   </si>
   <si>
     <t xml:space="preserve">(Default) 
@@ -561,12 +552,139 @@
   <si>
     <t>No sentiment. Like random words.</t>
   </si>
+  <si>
+    <t xml:space="preserve">(Default) 
+Embedding + (LSTMcell + Batch Normalization + Dropout)*3 + MaxPooling1d + Fully Connected Layer </t>
+  </si>
+  <si>
+    <t>ADAM optimizer
+LR=0.001, BatchSize=200, train_sequence_length=100
+Only train the last fully connected layer and the third LSTMcell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>train_sequence_length=50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Only train the last fully connected layer and the third LSTMcell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>train_sequence_length=150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Only train the last fully connected layer and the third LSTMcell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADAM optimizer
+LR=0.001, BatchSize=200, train_sequence_length=100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>retrain all layers</t>
+    </r>
+  </si>
+  <si>
+    <t>seq_len accuracy
+50       80.132 
+100      86.06 
+150      88.744
+200      90.244
+250      91.14 
+300      91.584
+350      91.856
+400      92.084
+450      92.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq_len accuracy
+50      80.052   
+100     86.372 
+150     89.076 
+200     90.44  
+250     91.14  
+300     91.596 
+350     91.808 
+400     92.012 
+450     92.12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq_len accuracy
+50      79.388
+100     85.456 
+150     88.3800
+200     89.832 
+250     90.496 
+300     91.008 
+350     91.268 
+400     91.456 
+450     91.556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq_len accuracy
+50      78.376 
+100     84.807 
+150     88.408
+200     89.976 
+250     90.708 
+300     91.116 
+350     91.576 
+400     91.696 
+450     91.78  </t>
+  </si>
+  <si>
+    <t>Training on longer sequece can give you higher train accuracy, but generlizes relative poorly on the testing datasets.</t>
+  </si>
+  <si>
+    <t>Training on shorter sequence doesn't harm the test accuracy that much, although the train accuracy is significantly low.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is interesting in the sense that training on longer sequence for only linear and the last LSTM layers gives higher training accuracy than traning the whole model on a shorter sequence.  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -580,10 +698,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SFMono-Regular"/>
     </font>
     <font>
       <sz val="10"/>
@@ -613,12 +727,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -642,38 +771,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,11 +1083,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -993,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
@@ -1007,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
@@ -1025,16 +1155,16 @@
         <v>86.731999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -1049,16 +1179,16 @@
         <v>80.935999999999893</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -1073,16 +1203,16 @@
         <v>87.231999999999999</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -1097,7 +1227,7 @@
         <v>74.724000000000004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1112,13 +1242,13 @@
     </row>
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -1132,17 +1262,17 @@
       <c r="G8" s="5">
         <v>85.028000000000006</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>35</v>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -1157,16 +1287,16 @@
         <v>87.968000000000004</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1181,21 +1311,21 @@
         <v>86.412000000000006</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.38758968663215598</v>
       </c>
       <c r="F11" s="5">
@@ -1205,7 +1335,7 @@
         <v>84.2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1220,13 +1350,13 @@
     </row>
     <row r="13" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>20</v>
@@ -1238,19 +1368,19 @@
         <v>97.048000000000002</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="5">
         <v>20</v>
@@ -1261,20 +1391,20 @@
       <c r="F14" s="5">
         <v>91.103999999999999</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>46</v>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>43</v>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="5">
         <v>20</v>
@@ -1285,20 +1415,20 @@
       <c r="F15" s="5">
         <v>97.155999999999906</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>47</v>
+      <c r="G15" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="5">
         <v>20</v>
@@ -1306,14 +1436,14 @@
       <c r="E16" s="5">
         <v>0.61724591302871701</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>65.872</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
+      <c r="G16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1323,44 +1453,44 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="8">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7">
         <v>20</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.20893405532836901</v>
       </c>
       <c r="F18" s="5">
         <v>91.591999999999999</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>52</v>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
         <v>20</v>
       </c>
       <c r="E19" s="5">
@@ -1369,22 +1499,22 @@
       <c r="F19" s="5">
         <v>88.051999999999893</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>55</v>
+      <c r="G19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7">
         <v>20</v>
       </c>
       <c r="E20" s="5">
@@ -1393,22 +1523,22 @@
       <c r="F20" s="5">
         <v>92.623999999999995</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>57</v>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="130" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>20</v>
       </c>
       <c r="E21" s="5">
@@ -1417,226 +1547,308 @@
       <c r="F21" s="5">
         <v>76.992000000000004</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9">
+        <v>75</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3.9546999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>25.73</v>
+      </c>
+      <c r="G23" s="9">
+        <v>28.62</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="182" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="113" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="D28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="128" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="172" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="C31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="130" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="182" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="113" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="128" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="10" t="s">
+      <c r="D33" s="9">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.19324352276325199</v>
+      </c>
+      <c r="F33" s="9">
+        <v>92.403999999999996</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="130" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.28168460679054202</v>
+      </c>
+      <c r="F34" s="9">
+        <v>87.727999999999994</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="130" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="172" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="D35" s="9">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6.7212859224527993E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>97.456000000000003</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="130" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="9">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9">
+        <v>9.5309952862560707E-2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>96.355999999999995</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1647,8 +1859,8 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>